--- a/classify_report_cnn.xlsx
+++ b/classify_report_cnn.xlsx
@@ -441,13 +441,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
-        <v>0.4615384615384616</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C3">
         <v>0.5</v>
       </c>
       <c r="D3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -475,13 +475,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -492,13 +492,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2222222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.3636363636363636</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -509,13 +509,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C6">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -543,13 +543,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -560,13 +560,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C9">
-        <v>0.1428571428571428</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -577,16 +577,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3214285714285715</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C10">
-        <v>0.3214285714285715</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D10">
-        <v>0.3214285714285715</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E10">
-        <v>0.3214285714285715</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,13 +594,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.2777777777777778</v>
+        <v>0.5589285714285714</v>
       </c>
       <c r="C11">
-        <v>0.3241071428571429</v>
+        <v>0.5464285714285715</v>
       </c>
       <c r="D11">
-        <v>0.2198135198135198</v>
+        <v>0.5108516483516483</v>
       </c>
       <c r="E11">
         <v>28</v>
@@ -611,13 +611,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.373015873015873</v>
+        <v>0.6068027210884354</v>
       </c>
       <c r="C12">
-        <v>0.3214285714285715</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D12">
-        <v>0.2585747585747586</v>
+        <v>0.556567242281528</v>
       </c>
       <c r="E12">
         <v>28</v>
